--- a/posesiones/1381266.xlsx
+++ b/posesiones/1381266.xlsx
@@ -1940,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>20</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>17</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>7</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>23</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2931,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>22</v>
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24">
         <v>8</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>5</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>23</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <v>22</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R35">
         <v>30</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>17</v>
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>22</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>21</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R46">
         <v>18</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51">
         <v>27</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R53">
         <v>22</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
         <v>15</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R58">
         <v>9</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R60">
         <v>8</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R62">
         <v>17</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>10</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70">
         <v>27</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5372,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R72">
         <v>21</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R74">
         <v>8</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5622,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>4</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5722,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>8</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>11</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5878,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R82">
         <v>9</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R89">
         <v>6</v>
@@ -6269,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R90">
         <v>16</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R92">
         <v>19</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R94">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>6</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>17</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7110,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R107">
         <v>17</v>
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R108">
         <v>16</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7551,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R116">
         <v>19</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7701,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>16</v>
@@ -7745,10 +7745,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7789,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R122">
         <v>28</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R124">
         <v>19</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R126">
         <v>5</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8433,7 +8433,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R134">
         <v>19</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R139">
         <v>28</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R140">
         <v>17</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8877,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R143">
         <v>29</v>
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R144">
         <v>16</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9030,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R146">
         <v>20</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R149">
         <v>11</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9280,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R151">
         <v>16</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9383,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R153">
         <v>19</v>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9583,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R157">
         <v>12</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R167">
         <v>37</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10162,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R169">
         <v>15</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10497,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R176">
         <v>20</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10694,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R180">
         <v>26</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R182">
         <v>17</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10897,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R184">
         <v>5</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R186">
         <v>5</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R193">
         <v>8</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11529,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R197">
         <v>20</v>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R201">
         <v>17</v>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R202">
         <v>14</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R204">
         <v>14</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R211">
         <v>1</v>
@@ -12270,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R212">
         <v>19</v>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12370,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R214">
         <v>18</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12611,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R219">
         <v>0</v>
@@ -12661,7 +12661,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12758,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R222">
         <v>25</v>
@@ -12811,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R224">
         <v>11</v>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12961,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R226">
         <v>17</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13155,7 +13155,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R230">
         <v>40</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13493,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R237">
         <v>19</v>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13596,7 +13596,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R239">
         <v>7</v>
@@ -13649,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R240">
         <v>2</v>
@@ -13693,10 +13693,10 @@
         <v>1</v>
       </c>
       <c r="P241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13743,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13884,7 +13884,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13931,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14207,10 +14207,10 @@
         <v>1</v>
       </c>
       <c r="P252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14260,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R253">
         <v>17</v>
@@ -14310,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R257">
         <v>30</v>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R263">
         <v>17</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R264">
         <v>20</v>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14901,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R266">
         <v>7</v>
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15001,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R271">
         <v>31</v>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R277">
         <v>20</v>
@@ -15492,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R278">
         <v>13</v>
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15589,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15636,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15780,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R284">
         <v>23</v>
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15930,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16077,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R290">
         <v>36</v>
@@ -16130,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R291">
         <v>16</v>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R293">
         <v>25</v>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16333,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R295">
         <v>4</v>
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16530,7 +16530,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R299">
         <v>10</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R300">
         <v>19</v>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16683,7 +16683,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R302">
         <v>21</v>
@@ -16736,7 +16736,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R303">
         <v>10</v>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16836,7 +16836,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R305">
         <v>27</v>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16980,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17030,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R309">
         <v>30</v>
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R310">
         <v>8</v>
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17227,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17321,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17421,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R317">
         <v>23</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17565,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17897,7 +17897,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R327">
         <v>45</v>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17994,7 +17994,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18141,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18235,7 +18235,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18282,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18332,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R336">
         <v>27</v>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R339">
         <v>26</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18582,7 +18582,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R341">
         <v>6</v>
@@ -18635,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R342">
         <v>8</v>
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18779,7 +18779,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18873,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18923,7 +18923,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R348">
         <v>20</v>
@@ -18973,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19167,7 +19167,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>33</v>
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19264,7 +19264,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19317,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R356">
         <v>15</v>
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19555,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19602,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19696,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19743,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20025,7 +20025,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20072,7 +20072,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20122,7 +20122,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R373">
         <v>6</v>
@@ -20175,7 +20175,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R374">
         <v>7</v>
@@ -20219,10 +20219,10 @@
         <v>1</v>
       </c>
       <c r="P375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q375">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20269,7 +20269,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20457,7 +20457,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20504,7 +20504,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20545,10 +20545,10 @@
         <v>1</v>
       </c>
       <c r="P382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20598,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R383">
         <v>12</v>
@@ -20651,7 +20651,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R384">
         <v>18</v>
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20751,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20798,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20848,7 +20848,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R388">
         <v>18</v>
@@ -20898,7 +20898,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20945,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21039,7 +21039,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21086,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21136,7 +21136,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R394">
         <v>27</v>
@@ -21189,7 +21189,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21239,7 +21239,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R396">
         <v>11</v>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21336,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21430,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21480,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R401">
         <v>17</v>
@@ -21530,7 +21530,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21624,7 +21624,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21671,7 +21671,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21765,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21812,7 +21812,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21909,7 +21909,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R410">
         <v>33</v>
@@ -21962,7 +21962,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22006,7 +22006,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22100,7 +22100,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22150,7 +22150,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22197,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22247,7 +22247,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22297,7 +22297,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R418">
         <v>25</v>
@@ -22350,7 +22350,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22444,7 +22444,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22491,7 +22491,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22538,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22588,7 +22588,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R424">
         <v>19</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22785,7 +22785,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22835,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22885,7 +22885,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R430">
         <v>18</v>
@@ -22935,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22982,7 +22982,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23079,7 +23079,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R434">
         <v>20</v>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23179,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23276,7 +23276,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R438">
         <v>27</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23373,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R440">
         <v>13</v>
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23473,7 +23473,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R442">
         <v>29</v>
@@ -23523,7 +23523,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23570,7 +23570,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23620,7 +23620,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23670,7 +23670,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R446">
         <v>20</v>
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23767,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23911,7 +23911,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -23961,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24008,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24058,7 +24058,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R454">
         <v>23</v>
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24161,7 +24161,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R456">
         <v>8</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24255,7 +24255,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24399,7 +24399,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R461">
         <v>23</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24499,7 +24499,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R463">
         <v>15</v>
@@ -24552,7 +24552,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24599,7 +24599,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24652,7 +24652,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R466">
         <v>12</v>
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24799,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R469">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24993,7 +24993,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R473">
         <v>8</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25093,7 +25093,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R475">
         <v>13</v>
@@ -25146,7 +25146,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25193,7 +25193,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25240,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25337,7 +25337,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R480">
         <v>1</v>
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25440,7 +25440,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R482">
         <v>16</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25537,7 +25537,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25681,7 +25681,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R487">
         <v>27</v>
@@ -25734,7 +25734,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R488">
         <v>16</v>
@@ -25784,7 +25784,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25834,7 +25834,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R490">
         <v>22</v>
@@ -25887,7 +25887,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25937,7 +25937,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R492">
         <v>19</v>
@@ -25987,7 +25987,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26084,7 +26084,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26181,7 +26181,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R497">
         <v>21</v>
@@ -26231,7 +26231,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26275,7 +26275,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26325,7 +26325,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R500">
         <v>5</v>
@@ -26375,7 +26375,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26422,7 +26422,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26469,7 +26469,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26519,7 +26519,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R504">
         <v>0</v>
@@ -26572,7 +26572,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R505">
         <v>18</v>
@@ -26622,7 +26622,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26669,7 +26669,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26763,7 +26763,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26813,7 +26813,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R510">
         <v>0</v>
@@ -26863,7 +26863,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26907,7 +26907,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27098,7 +27098,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27145,7 +27145,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27192,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27239,7 +27239,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27333,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27380,7 +27380,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27430,7 +27430,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R523">
         <v>22</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27574,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27668,7 +27668,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27765,7 +27765,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R530">
         <v>10</v>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R531">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>1</v>
       </c>
       <c r="P532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q532">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
